--- a/단국대 소 중 데이터 분석/acc.xlsx
+++ b/단국대 소 중 데이터 분석/acc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jung-ikhyo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jung-ikhyo/Desktop/TIL/단국대 소 중 데이터 분석/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{019A33FA-1063-E645-A97A-948BB8260C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226B5F3B-B822-3B47-BC38-A18006976057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16320" xr2:uid="{5F338E45-6F43-7A46-A2E7-B4F71D035A8F}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="D8:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <v>0.23960000000000001</v>
+        <v>0.28220000000000001</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -553,7 +553,7 @@
         <v>0.01</v>
       </c>
       <c r="I13">
-        <v>91.09</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="14" spans="4:9">
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>0.2127</v>
+        <v>0.21629999999999999</v>
       </c>
       <c r="G14">
         <v>5000</v>
@@ -573,7 +573,7 @@
         <v>0.01</v>
       </c>
       <c r="I14">
-        <v>91.65</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="15" spans="4:9">
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>0.19070000000000001</v>
+        <v>0.19359999999999999</v>
       </c>
       <c r="G15">
         <v>10000</v>
@@ -593,7 +593,7 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>92.29</v>
+        <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="16" spans="4:9">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>0.17499999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="G16">
         <v>30000</v>
@@ -613,7 +613,7 @@
         <v>0.01</v>
       </c>
       <c r="I16">
-        <v>92.8</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/단국대 소 중 데이터 분석/acc.xlsx
+++ b/단국대 소 중 데이터 분석/acc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jung-ikhyo/Desktop/TIL/단국대 소 중 데이터 분석/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-ighyo/Desktop/TIL/단국대 소 중 데이터 분석/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226B5F3B-B822-3B47-BC38-A18006976057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8CD2EF-5285-4843-B5BA-B040ED2703B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16320" xr2:uid="{5F338E45-6F43-7A46-A2E7-B4F71D035A8F}"/>
+    <workbookView xWindow="52660" yWindow="7660" windowWidth="28300" windowHeight="16320" xr2:uid="{5F338E45-6F43-7A46-A2E7-B4F71D035A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>뉴런수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>sigmoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>층</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,15 +432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211F625F-3304-3843-AE33-1746377D246C}">
-  <dimension ref="D8:I16"/>
+  <dimension ref="C8:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="8" spans="4:9">
+    <row r="8" spans="3:9">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
@@ -456,7 +463,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="3:9">
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>9</v>
       </c>
@@ -476,7 +486,10 @@
         <v>91.09</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="3:9">
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
         <v>9</v>
       </c>
@@ -496,7 +509,10 @@
         <v>91.65</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="3:9">
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>9</v>
       </c>
@@ -516,7 +532,10 @@
         <v>92.29</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="3:9">
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <v>9</v>
       </c>
@@ -536,7 +555,10 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="3:9">
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13">
         <v>9</v>
       </c>
@@ -553,10 +575,13 @@
         <v>0.01</v>
       </c>
       <c r="I13">
-        <v>0.90600000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14">
         <v>9</v>
       </c>
@@ -573,10 +598,13 @@
         <v>0.01</v>
       </c>
       <c r="I14">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15">
         <v>9</v>
       </c>
@@ -593,10 +621,13 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.92300000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16">
         <v>9</v>
       </c>
@@ -613,7 +644,237 @@
         <v>0.01</v>
       </c>
       <c r="I16">
-        <v>0.92600000000000005</v>
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="G17">
+        <v>50000</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>0.23</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>0.01</v>
+      </c>
+      <c r="I18">
+        <v>91.39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="G19">
+        <v>3000</v>
+      </c>
+      <c r="H19">
+        <v>0.01</v>
+      </c>
+      <c r="I19">
+        <v>91.81</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>0.193</v>
+      </c>
+      <c r="G20">
+        <v>5000</v>
+      </c>
+      <c r="H20">
+        <v>0.01</v>
+      </c>
+      <c r="I20">
+        <v>92.26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>0.1711</v>
+      </c>
+      <c r="G21">
+        <v>10000</v>
+      </c>
+      <c r="H21">
+        <v>0.01</v>
+      </c>
+      <c r="I21">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G22">
+        <v>50000</v>
+      </c>
+      <c r="H22">
+        <v>0.01</v>
+      </c>
+      <c r="I22">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>0.1694</v>
+      </c>
+      <c r="G23">
+        <v>10000</v>
+      </c>
+      <c r="H23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I23">
+        <v>92.96</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>0.2069</v>
+      </c>
+      <c r="G24">
+        <v>30000</v>
+      </c>
+      <c r="H24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I24">
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>0.1641</v>
+      </c>
+      <c r="G25">
+        <v>50000</v>
+      </c>
+      <c r="H25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I25">
+        <v>93.12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>0.16309999999999999</v>
+      </c>
+      <c r="G26">
+        <v>100000</v>
+      </c>
+      <c r="H26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I26">
+        <v>93.16</v>
       </c>
     </row>
   </sheetData>

--- a/단국대 소 중 데이터 분석/acc.xlsx
+++ b/단국대 소 중 데이터 분석/acc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-ighyo/Desktop/TIL/단국대 소 중 데이터 분석/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8CD2EF-5285-4843-B5BA-B040ED2703B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471DACC-D7B0-D847-9631-EAD71B42A882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52660" yWindow="7660" windowWidth="28300" windowHeight="16320" xr2:uid="{5F338E45-6F43-7A46-A2E7-B4F71D035A8F}"/>
+    <workbookView xWindow="52640" yWindow="7660" windowWidth="28300" windowHeight="16320" xr2:uid="{5F338E45-6F43-7A46-A2E7-B4F71D035A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>뉴런수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언더셈플링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버셈플링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADASYN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,15 +456,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211F625F-3304-3843-AE33-1746377D246C}">
-  <dimension ref="C8:I26"/>
+  <dimension ref="C2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="3:9">
+    <row r="2" spans="3:16">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16">
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>119631</v>
+      </c>
+      <c r="N3">
+        <v>42637</v>
+      </c>
+      <c r="O3">
+        <v>156732</v>
+      </c>
+      <c r="P3">
+        <v>319000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>187</v>
+      </c>
+      <c r="N6">
+        <v>11622</v>
+      </c>
+      <c r="O6">
+        <v>12114</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="M7">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="N7">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="O7">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -462,8 +542,20 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="3:9">
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>171</v>
+      </c>
+      <c r="N8">
+        <v>21606</v>
+      </c>
+      <c r="O8">
+        <v>6928</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
       <c r="C9">
         <v>1</v>
       </c>
@@ -485,8 +577,17 @@
       <c r="I9">
         <v>91.09</v>
       </c>
-    </row>
-    <row r="10" spans="3:9">
+      <c r="M9">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.95130000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16">
       <c r="C10">
         <v>1</v>
       </c>
@@ -508,8 +609,20 @@
       <c r="I10">
         <v>91.65</v>
       </c>
-    </row>
-    <row r="11" spans="3:9">
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>295</v>
+      </c>
+      <c r="N10">
+        <v>24462</v>
+      </c>
+      <c r="O10">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
       <c r="C11">
         <v>1</v>
       </c>
@@ -531,8 +644,17 @@
       <c r="I11">
         <v>92.29</v>
       </c>
-    </row>
-    <row r="12" spans="3:9">
+      <c r="M11">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="N11">
+        <v>0.59860000000000002</v>
+      </c>
+      <c r="O11">
+        <v>12114</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
       <c r="C12">
         <v>1</v>
       </c>
@@ -554,8 +676,20 @@
       <c r="I12">
         <v>92.8</v>
       </c>
-    </row>
-    <row r="13" spans="3:9">
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>389</v>
+      </c>
+      <c r="N12">
+        <v>6730</v>
+      </c>
+      <c r="O12">
+        <v>21933</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
       <c r="C13">
         <v>1</v>
       </c>
@@ -578,7 +712,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="14" spans="3:9">
+    <row r="14" spans="3:16">
       <c r="C14">
         <v>1</v>
       </c>
@@ -600,8 +734,20 @@
       <c r="I14">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="15" spans="3:9">
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>467</v>
+      </c>
+      <c r="N14">
+        <v>27990</v>
+      </c>
+      <c r="O14">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
       <c r="C15">
         <v>1</v>
       </c>
@@ -623,8 +769,17 @@
       <c r="I15">
         <v>92.3</v>
       </c>
-    </row>
-    <row r="16" spans="3:9">
+      <c r="M15">
+        <v>0.996</v>
+      </c>
+      <c r="N15">
+        <v>0.56879999999999997</v>
+      </c>
+      <c r="O15">
+        <v>0.95809999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
       <c r="C16">
         <v>1</v>
       </c>

--- a/단국대 소 중 데이터 분석/acc.xlsx
+++ b/단국대 소 중 데이터 분석/acc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-ighyo/Desktop/TIL/단국대 소 중 데이터 분석/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471DACC-D7B0-D847-9631-EAD71B42A882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A9F3E1-DE93-7C41-85C6-476E546AC972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52640" yWindow="7660" windowWidth="28300" windowHeight="16320" xr2:uid="{5F338E45-6F43-7A46-A2E7-B4F71D035A8F}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="C2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q24" sqref="P24:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -680,13 +680,13 @@
         <v>12</v>
       </c>
       <c r="M12">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="N12">
-        <v>6730</v>
+        <v>26529</v>
       </c>
       <c r="O12">
-        <v>21933</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -710,6 +710,15 @@
       </c>
       <c r="I13">
         <v>90.6</v>
+      </c>
+      <c r="M13">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="N13">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.95879999999999999</v>
       </c>
     </row>
     <row r="14" spans="3:16">
